--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value336.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value336.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6420591516106963</v>
+        <v>0.8081873059272766</v>
       </c>
       <c r="B1">
-        <v>1.069613664841774</v>
+        <v>1.518516302108765</v>
       </c>
       <c r="C1">
-        <v>3.536369985843994</v>
+        <v>5.935915946960449</v>
       </c>
       <c r="D1">
-        <v>3.440771803156744</v>
+        <v>3.115354776382446</v>
       </c>
       <c r="E1">
-        <v>1.323568577690807</v>
+        <v>1.46107006072998</v>
       </c>
     </row>
   </sheetData>
